--- a/GameDataTable.xlsx
+++ b/GameDataTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="4294939910" windowHeight="19120" tabRatio="500" activeTab="3"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="4294939910" windowHeight="19120" tabRatio="500" activeTab="2"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="UserStatTable" sheetId="1" r:id="rId4"/>
@@ -24,171 +24,285 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="103">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="108">
+  <x:si>
+    <x:t>ItemName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HpKit_mid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>drop_rate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>monster_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FThrowing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Throwing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>skil_group</x:t>
+  </x:si>
+  <x:si>
+    <x:t>crt_value</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gold_high</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Exp_high</x:t>
+  </x:si>
+  <x:si>
+    <x:t>move_spd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>range_atk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sector_atk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Whirlwind</x:t>
+  </x:si>
+  <x:si>
+    <x:t>crt_rate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>buff_time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PulseSword</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M_Desktop</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PracSword</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M_KeyBoard</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M_Coffee</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TUClothes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Exp_field</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gold_low</x:t>
+  </x:si>
+  <x:si>
+    <x:t>item_name</x:t>
+  </x:si>
   <x:si>
     <x:t>EXP</x:t>
   </x:si>
   <x:si>
+    <x:t>lv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>atk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>idx</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> </x:t>
+  </x:si>
+  <x:si>
     <x:t>bow</x:t>
   </x:si>
   <x:si>
-    <x:t>lv</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hp</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>idx</x:t>
-  </x:si>
-  <x:si>
-    <x:t>atk</x:t>
-  </x:si>
-  <x:si>
     <x:t>TitanChest</x:t>
   </x:si>
   <x:si>
+    <x:t>HpKit_low</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AtkBooster</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AlloyHelmet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cooltime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PulseGun</x:t>
+  </x:si>
+  <x:si>
     <x:t>skill_lv</x:t>
   </x:si>
   <x:si>
-    <x:t>cooltime</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PulseGun</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HpKit_low</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AlloyHelmet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AtkBooster</x:t>
-  </x:si>
-  <x:si>
-    <x:t>buff_time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>range_atk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>crt_rate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Throwing</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Exp_high</x:t>
-  </x:si>
-  <x:si>
-    <x:t>move_spd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sector_atk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FThrowing</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Whirlwind</x:t>
-  </x:si>
-  <x:si>
-    <x:t>skil_group</x:t>
-  </x:si>
-  <x:si>
-    <x:t>crt_value</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gold_high</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PulseSword</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M_KeyBoard</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M_Desktop</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PracSword</x:t>
-  </x:si>
-  <x:si>
-    <x:t>move_speed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HpKit_mid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>monster_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>drop_rate</x:t>
+    <x:t>HpKit_high</x:t>
+  </x:si>
+  <x:si>
+    <x:t>consumable</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M_Cogwheel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Positron</x:t>
   </x:si>
   <x:si>
     <x:t>Gold_field</x:t>
   </x:si>
   <x:si>
-    <x:t>M_Cogwheel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HpKit_high</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Positron</x:t>
-  </x:si>
-  <x:si>
-    <x:t>crit_rate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>consumable</x:t>
+    <x:t>Document</x:t>
   </x:si>
   <x:si>
     <x:t>EnergySword</x:t>
   </x:si>
   <x:si>
+    <x:t>Gold_mid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M_BoltNut</x:t>
+  </x:si>
+  <x:si>
     <x:t>atc_buff</x:t>
   </x:si>
   <x:si>
-    <x:t>Gold_mid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Document</x:t>
-  </x:si>
-  <x:si>
-    <x:t>category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M_BoltNut</x:t>
-  </x:si>
-  <x:si>
     <x:t>M_DrillBoss</x:t>
   </x:si>
   <x:si>
     <x:t>M_BubbleTea</x:t>
   </x:si>
   <x:si>
-    <x:t>Gold_low</x:t>
-  </x:si>
-  <x:si>
-    <x:t>item_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M_Coffee</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TUClothes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dodge_rate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Exp_field</x:t>
+    <x:t>bIsMonster</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ItemIndex</x:t>
+  </x:si>
+  <x:si>
+    <x:t>required_exp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M_EnergyDrink</x:t>
+  </x:si>
+  <x:si>
+    <x:t>skill_type_01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M_DecadenceTino</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EnhanceChest</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EnhanceHelmet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cumulative_exp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AbilityType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>skill_value_00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>skill_type_00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>skill_value_01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dodge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>level</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BirdGun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Suit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Coffee</x:t>
+  </x:si>
+  <x:si>
+    <x:t>atk_spd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ddalba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mangba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Exp_low</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dash</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HitHard</x:t>
+  </x:si>
+  <x:si>
+    <x:t>useable</x:t>
+  </x:si>
+  <x:si>
+    <x:t>chapter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>weapon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recove</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M_Mouse</x:t>
+  </x:si>
+  <x:si>
+    <x:t>armor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Anger</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Quest</x:t>
+  </x:si>
+  <x:si>
+    <x:t>value</x:t>
+  </x:si>
+  <x:si>
+    <x:t>helmet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>is_boss</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Exp_mid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>chest</x:t>
+  </x:si>
+  <x:si>
+    <x:t>item_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sword</x:t>
   </x:si>
   <x:si>
     <x:t>Clash</x:t>
@@ -197,142 +311,43 @@
     <x:t>name</x:t>
   </x:si>
   <x:si>
-    <x:t>Coffee</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dodge</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Suit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>atk_spd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>level</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ddalba</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mangba</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BirdGun</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Exp_low</x:t>
-  </x:si>
-  <x:si>
-    <x:t>type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Is_Buy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dash</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sword</x:t>
-  </x:si>
-  <x:si>
-    <x:t>resell</x:t>
-  </x:si>
-  <x:si>
-    <x:t>useable</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Quest</x:t>
-  </x:si>
-  <x:si>
-    <x:t>grade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M_Mouse</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HitHard</x:t>
-  </x:si>
-  <x:si>
-    <x:t>item_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>chapter</x:t>
-  </x:si>
-  <x:si>
-    <x:t>weapon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sell</x:t>
-  </x:si>
-  <x:si>
-    <x:t>recove</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Exp_mid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>none</x:t>
-  </x:si>
-  <x:si>
-    <x:t>armor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Anger</x:t>
-  </x:si>
-  <x:si>
-    <x:t>value</x:t>
-  </x:si>
-  <x:si>
-    <x:t>helmet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>chest</x:t>
-  </x:si>
-  <x:si>
-    <x:t>is_boss</x:t>
-  </x:si>
-  <x:si>
-    <x:t>from_monster</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ability_type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ability_value</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M_EnergyDrink</x:t>
-  </x:si>
-  <x:si>
-    <x:t>skill_type_01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>required_exp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EnhanceHelmet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M_DecadenceTino</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EnhanceChest</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cumulative_exp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>skill_value_01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>skill_value_00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>skill_type_00</x:t>
+    <x:t>unuseable</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AbilityValue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DetailType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CriticalRate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bIsBuy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Attack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Price</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DodgeRate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MoveSpeed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ResellPrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bCanResell</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -537,7 +552,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -620,7 +634,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -655,7 +668,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -700,7 +712,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -744,7 +755,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -829,7 +839,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -850,7 +859,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -881,7 +889,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1257,25 +1264,25 @@
   <x:sheetData>
     <x:row r="1" spans="1:7">
       <x:c r="A1" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1" s="1" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D1" s="1" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E1" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
       <x:c r="F1" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G1" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:7">
@@ -1509,7 +1516,7 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -1527,31 +1534,31 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="21.39999999999999857891">
       <x:c r="A1" s="3" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B1" s="3" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C1" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B1" s="3" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="C1" s="3" t="s">
-        <x:v>24</x:v>
-      </x:c>
       <x:c r="D1" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E1" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F1" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G1" s="3" t="s">
-        <x:v>101</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="H1" s="3" t="s">
-        <x:v>94</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I1" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:9">
@@ -1559,7 +1566,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="4" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C2" s="4">
         <x:v>1</x:v>
@@ -1571,16 +1578,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F2" s="4" t="s">
-        <x:v>7</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G2" s="4">
         <x:v>150</x:v>
       </x:c>
       <x:c r="H2" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I2" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -1588,7 +1595,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="4" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C3" s="4">
         <x:v>1</x:v>
@@ -1600,16 +1607,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F3" s="4" t="s">
-        <x:v>7</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G3" s="4">
         <x:v>175</x:v>
       </x:c>
       <x:c r="H3" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I3" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -1617,7 +1624,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="4" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C4" s="4">
         <x:v>1</x:v>
@@ -1629,16 +1636,16 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F4" s="4" t="s">
-        <x:v>7</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G4" s="4">
         <x:v>200</x:v>
       </x:c>
       <x:c r="H4" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I4" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -1646,7 +1653,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B5" s="4" t="s">
-        <x:v>55</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C5" s="4">
         <x:v>2</x:v>
@@ -1658,13 +1665,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F5" s="4" t="s">
-        <x:v>7</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G5" s="4">
         <x:v>175</x:v>
       </x:c>
       <x:c r="H5" s="4" t="s">
-        <x:v>68</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I5" s="4">
         <x:v>2</x:v>
@@ -1675,7 +1682,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B6" s="4" t="s">
-        <x:v>55</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C6" s="4">
         <x:v>2</x:v>
@@ -1687,13 +1694,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F6" s="4" t="s">
-        <x:v>7</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G6" s="4">
         <x:v>200</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>68</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I6" s="4">
         <x:v>3</x:v>
@@ -1704,7 +1711,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B7" s="4" t="s">
-        <x:v>55</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C7" s="4">
         <x:v>2</x:v>
@@ -1716,13 +1723,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F7" s="4" t="s">
-        <x:v>7</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G7" s="4">
         <x:v>225</x:v>
       </x:c>
       <x:c r="H7" s="4" t="s">
-        <x:v>68</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I7" s="4">
         <x:v>4</x:v>
@@ -1733,7 +1740,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B8" s="4" t="s">
-        <x:v>23</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C8" s="4">
         <x:v>3</x:v>
@@ -1745,13 +1752,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="F8" s="4" t="s">
-        <x:v>7</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G8" s="4">
         <x:v>200</x:v>
       </x:c>
       <x:c r="H8" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I8" s="4">
         <x:v>2</x:v>
@@ -1762,7 +1769,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B9" s="4" t="s">
-        <x:v>23</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C9" s="4">
         <x:v>3</x:v>
@@ -1774,13 +1781,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F9" s="4" t="s">
-        <x:v>7</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G9" s="4">
         <x:v>225</x:v>
       </x:c>
       <x:c r="H9" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I9" s="4">
         <x:v>3</x:v>
@@ -1791,7 +1798,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B10" s="4" t="s">
-        <x:v>23</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C10" s="4">
         <x:v>3</x:v>
@@ -1803,13 +1810,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F10" s="4" t="s">
-        <x:v>7</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G10" s="4">
         <x:v>250</x:v>
       </x:c>
       <x:c r="H10" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I10" s="4">
         <x:v>4</x:v>
@@ -1820,7 +1827,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B11" s="4" t="s">
-        <x:v>18</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="4">
         <x:v>4</x:v>
@@ -1832,16 +1839,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="F11" s="4" t="s">
-        <x:v>7</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G11" s="4">
         <x:v>200</x:v>
       </x:c>
       <x:c r="H11" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I11" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -1849,7 +1856,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B12" s="4" t="s">
-        <x:v>18</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C12" s="4">
         <x:v>4</x:v>
@@ -1861,16 +1868,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F12" s="4" t="s">
-        <x:v>7</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G12" s="4">
         <x:v>250</x:v>
       </x:c>
       <x:c r="H12" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I12" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -1878,7 +1885,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B13" s="4" t="s">
-        <x:v>18</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C13" s="4">
         <x:v>4</x:v>
@@ -1890,16 +1897,16 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F13" s="4" t="s">
-        <x:v>7</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G13" s="4">
         <x:v>300</x:v>
       </x:c>
       <x:c r="H13" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I13" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -1907,7 +1914,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B14" s="4" t="s">
-        <x:v>22</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C14" s="4">
         <x:v>5</x:v>
@@ -1919,13 +1926,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F14" s="4" t="s">
-        <x:v>7</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G14" s="4">
         <x:v>80</x:v>
       </x:c>
       <x:c r="H14" s="4" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I14" s="4">
         <x:v>5</x:v>
@@ -1936,7 +1943,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B15" s="4" t="s">
-        <x:v>22</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C15" s="4">
         <x:v>5</x:v>
@@ -1948,13 +1955,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F15" s="4" t="s">
-        <x:v>7</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G15" s="4">
         <x:v>90</x:v>
       </x:c>
       <x:c r="H15" s="4" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I15" s="4">
         <x:v>7</x:v>
@@ -1965,7 +1972,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B16" s="4" t="s">
-        <x:v>22</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C16" s="4">
         <x:v>5</x:v>
@@ -1977,13 +1984,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F16" s="4" t="s">
-        <x:v>7</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G16" s="4">
         <x:v>100</x:v>
       </x:c>
       <x:c r="H16" s="4" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I16" s="4">
         <x:v>9</x:v>
@@ -1994,7 +2001,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B17" s="4" t="s">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C17" s="4">
         <x:v>6</x:v>
@@ -2012,7 +2019,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H17" s="4" t="s">
-        <x:v>60</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I17" s="4">
         <x:v>50</x:v>
@@ -2023,7 +2030,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B18" s="4" t="s">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C18" s="4">
         <x:v>6</x:v>
@@ -2041,7 +2048,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H18" s="4" t="s">
-        <x:v>60</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I18" s="4">
         <x:v>75</x:v>
@@ -2052,7 +2059,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B19" s="4" t="s">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C19" s="4">
         <x:v>6</x:v>
@@ -2070,14 +2077,14 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H19" s="4" t="s">
-        <x:v>60</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I19" s="4">
         <x:v>100</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -2085,76 +2092,79 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet3"/>
-  <x:dimension ref="A1:P30"/>
+  <x:dimension ref="A1:Q30"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScale="170" zoomScaleNormal="170" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D10" activeCellId="0" sqref="D10:D10"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="180" zoomScaleNormal="180" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="H20" activeCellId="0" sqref="H20:H20"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.66015625" defaultRowHeight="16.39999999999999857891"/>
   <x:sheetData>
-    <x:row r="1" spans="1:16" ht="21.39999999999999857891">
+    <x:row r="1" spans="1:17">
       <x:c r="A1" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B1" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C1" s="3" t="s">
-        <x:v>45</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D1" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E1" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F1" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G1" s="3" t="s">
-        <x:v>39</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="H1" s="3" t="s">
-        <x:v>53</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="I1" s="3" t="s">
-        <x:v>31</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="J1" s="3" t="s">
-        <x:v>91</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K1" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="L1" s="3" t="s">
-        <x:v>73</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="M1" s="3" t="s">
-        <x:v>90</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N1" s="3" t="s">
-        <x:v>70</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="O1" s="3" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="P1" s="3" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="Q1" s="3" t="s">
+        <x:v>101</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:17">
+      <x:c r="A2" s="4">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B2" s="4" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C2" s="4" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="P1" s="3" t="s">
-        <x:v>67</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:16">
-      <x:c r="A2" s="4">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B2" s="4" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C2" s="4" t="s">
-        <x:v>78</x:v>
-      </x:c>
       <x:c r="D2" s="4" t="s">
-        <x:v>1</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E2" s="4">
         <x:v>5</x:v>
@@ -2172,10 +2182,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K2" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L2" s="4">
         <x:v>1</x:v>
@@ -2192,19 +2202,22 @@
       <x:c r="P2" s="4">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="3" spans="1:16">
+      <x:c r="Q2" s="4">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:17">
       <x:c r="A3" s="4">
         <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C3" s="4" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D3" s="4" t="s">
-        <x:v>1</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E3" s="4">
         <x:v>15</x:v>
@@ -2222,10 +2235,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J3" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K3" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L3" s="4">
         <x:v>2</x:v>
@@ -2242,19 +2255,22 @@
       <x:c r="P3" s="4">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:16">
+      <x:c r="Q3" s="4">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:17">
       <x:c r="A4" s="4">
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="4" t="s">
-        <x:v>38</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C4" s="4" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D4" s="4" t="s">
-        <x:v>1</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E4" s="4">
         <x:v>30</x:v>
@@ -2272,10 +2288,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J4" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K4" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L4" s="4">
         <x:v>3</x:v>
@@ -2292,19 +2308,22 @@
       <x:c r="P4" s="4">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="5" spans="1:16">
+      <x:c r="Q4" s="4">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:17">
       <x:c r="A5" s="4">
         <x:v>4</x:v>
       </x:c>
       <x:c r="B5" s="4" t="s">
-        <x:v>30</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C5" s="4" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D5" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E5" s="4">
         <x:v>8</x:v>
@@ -2322,10 +2341,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J5" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K5" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L5" s="4">
         <x:v>1</x:v>
@@ -2342,19 +2361,22 @@
       <x:c r="P5" s="4">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="6" spans="1:16">
+      <x:c r="Q5" s="4">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:17">
       <x:c r="A6" s="4">
         <x:v>5</x:v>
       </x:c>
       <x:c r="B6" s="4" t="s">
-        <x:v>27</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C6" s="4" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E6" s="4">
         <x:v>20</x:v>
@@ -2372,10 +2394,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J6" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K6" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L6" s="4">
         <x:v>2</x:v>
@@ -2392,19 +2414,22 @@
       <x:c r="P6" s="4">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="7" spans="1:16">
+      <x:c r="Q6" s="4">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:17">
       <x:c r="A7" s="4">
         <x:v>6</x:v>
       </x:c>
       <x:c r="B7" s="4" t="s">
-        <x:v>41</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C7" s="4" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>40</x:v>
@@ -2422,10 +2447,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J7" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K7" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L7" s="4">
         <x:v>3</x:v>
@@ -2442,16 +2467,19 @@
       <x:c r="P7" s="4">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="8" spans="1:16">
+      <x:c r="Q7" s="4">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:17">
       <x:c r="A8" s="4">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B8" s="4" t="s">
-        <x:v>13</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C8" s="4" t="s">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
         <x:v>87</x:v>
@@ -2472,10 +2500,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J8" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K8" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L8" s="4">
         <x:v>1</x:v>
@@ -2492,16 +2520,19 @@
       <x:c r="P8" s="4">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="9" spans="1:16" ht="21.39999999999999857891">
+      <x:c r="Q8" s="4">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:17" ht="21.39999999999999857891">
       <x:c r="A9" s="4">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B9" s="4" t="s">
-        <x:v>96</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C9" s="4" t="s">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
         <x:v>87</x:v>
@@ -2522,10 +2553,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J9" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K9" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L9" s="4">
         <x:v>2</x:v>
@@ -2542,19 +2573,22 @@
       <x:c r="P9" s="4">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="10" spans="1:16">
+      <x:c r="Q9" s="4">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:17">
       <x:c r="A10" s="4">
         <x:v>9</x:v>
       </x:c>
       <x:c r="B10" s="4" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C10" s="4" t="s">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>88</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E10" s="4">
         <x:v>0</x:v>
@@ -2572,10 +2606,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="J10" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K10" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L10" s="4">
         <x:v>1</x:v>
@@ -2592,19 +2626,22 @@
       <x:c r="P10" s="4">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="11" spans="1:16" ht="21.39999999999999857891">
+      <x:c r="Q10" s="4">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:17" ht="21.39999999999999857891">
       <x:c r="A11" s="4">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B11" s="4" t="s">
-        <x:v>98</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C11" s="4" t="s">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>88</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E11" s="4">
         <x:v>0</x:v>
@@ -2622,10 +2659,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J11" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K11" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L11" s="4">
         <x:v>2</x:v>
@@ -2642,31 +2679,34 @@
       <x:c r="P11" s="4">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="12" spans="1:16">
+      <x:c r="Q11" s="4">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:17">
       <x:c r="A12" s="4">
         <x:v>101</x:v>
       </x:c>
       <x:c r="B12" s="4" t="s">
-        <x:v>12</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C12" s="4" t="s">
-        <x:v>71</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D12" s="4" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E12" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F12" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G12" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H12" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I12" s="4"/>
       <x:c r="J12" s="4" t="s">
@@ -2675,44 +2715,49 @@
       <x:c r="K12" s="4">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="L12" s="4"/>
+      <x:c r="L12" s="4">
+        <x:v>1</x:v>
+      </x:c>
       <x:c r="M12" s="4">
         <x:v>1</x:v>
       </x:c>
       <x:c r="N12" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O12" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="P12" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:16">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P12" s="4">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q12" s="4">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:17">
       <x:c r="A13" s="4">
         <x:v>102</x:v>
       </x:c>
       <x:c r="B13" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C13" s="4" t="s">
-        <x:v>71</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D13" s="4" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E13" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F13" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G13" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H13" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I13" s="4"/>
       <x:c r="J13" s="4" t="s">
@@ -2721,44 +2766,49 @@
       <x:c r="K13" s="4">
         <x:v>200</x:v>
       </x:c>
-      <x:c r="L13" s="4"/>
+      <x:c r="L13" s="4">
+        <x:v>2</x:v>
+      </x:c>
       <x:c r="M13" s="4">
         <x:v>1</x:v>
       </x:c>
       <x:c r="N13" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O13" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="P13" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:16">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P13" s="4">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q13" s="4">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:17">
       <x:c r="A14" s="4">
         <x:v>103</x:v>
       </x:c>
       <x:c r="B14" s="4" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C14" s="4" t="s">
-        <x:v>71</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D14" s="4" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E14" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F14" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G14" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H14" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I14" s="4"/>
       <x:c r="J14" s="4" t="s">
@@ -2767,78 +2817,88 @@
       <x:c r="K14" s="4">
         <x:v>300</x:v>
       </x:c>
-      <x:c r="L14" s="4"/>
+      <x:c r="L14" s="4">
+        <x:v>3</x:v>
+      </x:c>
       <x:c r="M14" s="4">
         <x:v>1</x:v>
       </x:c>
       <x:c r="N14" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O14" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="P14" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:16">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P14" s="4">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q14" s="4">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:17">
       <x:c r="A15" s="4">
         <x:v>104</x:v>
       </x:c>
       <x:c r="B15" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C15" s="4" t="s">
-        <x:v>71</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D15" s="4" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E15" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F15" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G15" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H15" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I15" s="4"/>
       <x:c r="J15" s="4" t="s">
-        <x:v>42</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="K15" s="4">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="L15" s="4"/>
+      <x:c r="L15" s="4">
+        <x:v>3</x:v>
+      </x:c>
       <x:c r="M15" s="4">
         <x:v>1</x:v>
       </x:c>
       <x:c r="N15" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O15" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="P15" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:16">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P15" s="4">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q15" s="4">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:17">
       <x:c r="A16" s="4">
         <x:v>201</x:v>
       </x:c>
       <x:c r="B16" s="4" t="s">
-        <x:v>59</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C16" s="4" t="s">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D16" s="4" t="s">
-        <x:v>88</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E16" s="4">
         <x:v>0</x:v>
@@ -2856,12 +2916,12 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="J16" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K16" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="L16" s="5" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="L16" s="4">
         <x:v>4</x:v>
       </x:c>
       <x:c r="M16" s="4">
@@ -2876,19 +2936,22 @@
       <x:c r="P16" s="4">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="17" spans="1:16">
+      <x:c r="Q16" s="4">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:17">
       <x:c r="A17" s="4">
         <x:v>202</x:v>
       </x:c>
       <x:c r="B17" s="4" t="s">
-        <x:v>52</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C17" s="4" t="s">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D17" s="4" t="s">
-        <x:v>88</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E17" s="4">
         <x:v>0</x:v>
@@ -2906,12 +2969,12 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="J17" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K17" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="L17" s="5" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="L17" s="4">
         <x:v>4</x:v>
       </x:c>
       <x:c r="M17" s="4">
@@ -2926,40 +2989,45 @@
       <x:c r="P17" s="4">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="18" spans="1:16">
+      <x:c r="Q17" s="4">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:17">
       <x:c r="A18" s="4">
         <x:v>203</x:v>
       </x:c>
       <x:c r="B18" s="4" t="s">
-        <x:v>62</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C18" s="4" t="s">
-        <x:v>71</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D18" s="4" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E18" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F18" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G18" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H18" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I18" s="4"/>
       <x:c r="J18" s="4" t="s">
-        <x:v>42</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="K18" s="4">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="L18" s="4"/>
+      <x:c r="L18" s="4">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="M18" s="4">
         <x:v>0</x:v>
       </x:c>
@@ -2972,40 +3040,45 @@
       <x:c r="P18" s="4">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="19" spans="1:16">
+      <x:c r="Q18" s="4">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:17">
       <x:c r="A19" s="4">
         <x:v>204</x:v>
       </x:c>
       <x:c r="B19" s="4" t="s">
-        <x:v>63</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C19" s="4" t="s">
-        <x:v>71</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D19" s="4" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E19" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F19" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G19" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H19" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I19" s="4"/>
       <x:c r="J19" s="4" t="s">
-        <x:v>42</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="K19" s="4">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="L19" s="4"/>
+      <x:c r="L19" s="4">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="M19" s="4">
         <x:v>0</x:v>
       </x:c>
@@ -3018,31 +3091,34 @@
       <x:c r="P19" s="4">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="20" spans="1:16">
+      <x:c r="Q19" s="4">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:17">
       <x:c r="A20" s="4">
         <x:v>205</x:v>
       </x:c>
       <x:c r="B20" s="4" t="s">
-        <x:v>57</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C20" s="4" t="s">
-        <x:v>71</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D20" s="4" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E20" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F20" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G20" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H20" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I20" s="4"/>
       <x:c r="J20" s="4" t="s">
@@ -3051,7 +3127,9 @@
       <x:c r="K20" s="4">
         <x:v>200</x:v>
       </x:c>
-      <x:c r="L20" s="4"/>
+      <x:c r="L20" s="4">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="M20" s="4">
         <x:v>0</x:v>
       </x:c>
@@ -3064,509 +3142,542 @@
       <x:c r="P20" s="4">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="21" spans="1:16">
+      <x:c r="Q20" s="4">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:17">
       <x:c r="A21" s="4">
         <x:v>300</x:v>
       </x:c>
       <x:c r="B21" s="4" t="s">
-        <x:v>54</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C21" s="4" t="s">
-        <x:v>83</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D21" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E21" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F21" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G21" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H21" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I21" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J21" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="K21" s="4">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="L21" s="5" t="s">
-        <x:v>4</x:v>
+      <x:c r="L21" s="4">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M21" s="4">
         <x:v>1</x:v>
       </x:c>
       <x:c r="N21" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O21" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="P21" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:16">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P21" s="4">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q21" s="4">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:17">
       <x:c r="A22" s="4">
         <x:v>400</x:v>
       </x:c>
       <x:c r="B22" s="4" t="s">
-        <x:v>35</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C22" s="4" t="s">
-        <x:v>71</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D22" s="4" t="s">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E22" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F22" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G22" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H22" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I22" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J22" s="4" t="s">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="K22" s="4">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="L22" s="5" t="s">
-        <x:v>4</x:v>
+      <x:c r="L22" s="4">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M22" s="4">
         <x:v>1</x:v>
       </x:c>
       <x:c r="N22" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O22" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="P22" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:16">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P22" s="4">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q22" s="4">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:17">
       <x:c r="A23" s="4">
         <x:v>301</x:v>
       </x:c>
       <x:c r="B23" s="4" t="s">
-        <x:v>65</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C23" s="4" t="s">
-        <x:v>83</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D23" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E23" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F23" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G23" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H23" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I23" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J23" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="K23" s="4">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="L23" s="5" t="s">
-        <x:v>4</x:v>
+      <x:c r="L23" s="4">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M23" s="4">
         <x:v>1</x:v>
       </x:c>
       <x:c r="N23" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O23" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="P23" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:16">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P23" s="4">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q23" s="4">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:17">
       <x:c r="A24" s="4">
         <x:v>401</x:v>
       </x:c>
       <x:c r="B24" s="4" t="s">
-        <x:v>49</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C24" s="4" t="s">
-        <x:v>71</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D24" s="4" t="s">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E24" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F24" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G24" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H24" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I24" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J24" s="4" t="s">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="K24" s="4">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="L24" s="5" t="s">
-        <x:v>4</x:v>
+      <x:c r="L24" s="4">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M24" s="4">
         <x:v>1</x:v>
       </x:c>
       <x:c r="N24" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O24" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="P24" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:16">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P24" s="4">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q24" s="4">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:17">
       <x:c r="A25" s="4">
         <x:v>302</x:v>
       </x:c>
       <x:c r="B25" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C25" s="4" t="s">
-        <x:v>83</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D25" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E25" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F25" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G25" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H25" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I25" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J25" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="K25" s="4">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="L25" s="5" t="s">
-        <x:v>4</x:v>
+      <x:c r="L25" s="4">
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M25" s="4">
         <x:v>1</x:v>
       </x:c>
       <x:c r="N25" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O25" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="P25" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:16">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P25" s="4">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q25" s="4">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:17">
       <x:c r="A26" s="4">
         <x:v>402</x:v>
       </x:c>
       <x:c r="B26" s="4" t="s">
-        <x:v>43</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C26" s="4" t="s">
-        <x:v>71</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D26" s="4" t="s">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E26" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F26" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G26" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H26" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I26" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J26" s="4" t="s">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="K26" s="4">
         <x:v>200</x:v>
       </x:c>
-      <x:c r="L26" s="5" t="s">
-        <x:v>4</x:v>
+      <x:c r="L26" s="4">
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M26" s="4">
         <x:v>1</x:v>
       </x:c>
       <x:c r="N26" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O26" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="P26" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:16">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P26" s="4">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q26" s="4">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:17">
       <x:c r="A27" s="4">
         <x:v>303</x:v>
       </x:c>
       <x:c r="B27" s="4" t="s">
-        <x:v>19</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C27" s="4" t="s">
-        <x:v>83</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D27" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E27" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F27" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G27" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H27" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I27" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J27" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="K27" s="4">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="L27" s="5" t="s">
-        <x:v>4</x:v>
+      <x:c r="L27" s="4">
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M27" s="4">
         <x:v>1</x:v>
       </x:c>
       <x:c r="N27" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O27" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="P27" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:16">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P27" s="4">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q27" s="4">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:17">
       <x:c r="A28" s="4">
         <x:v>403</x:v>
       </x:c>
       <x:c r="B28" s="4" t="s">
-        <x:v>26</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C28" s="4" t="s">
-        <x:v>71</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D28" s="4" t="s">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E28" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F28" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G28" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H28" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I28" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J28" s="4" t="s">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="K28" s="4">
         <x:v>300</x:v>
       </x:c>
-      <x:c r="L28" s="5" t="s">
-        <x:v>4</x:v>
+      <x:c r="L28" s="4">
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M28" s="4">
         <x:v>1</x:v>
       </x:c>
       <x:c r="N28" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O28" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="P28" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:16">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P28" s="4">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q28" s="4">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:17">
       <x:c r="A29" s="4">
         <x:v>501</x:v>
       </x:c>
       <x:c r="B29" s="4" t="s">
-        <x:v>5</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C29" s="4" t="s">
-        <x:v>83</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D29" s="4" t="s">
-        <x:v>72</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E29" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F29" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G29" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H29" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I29" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J29" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K29" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="L29" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="L29" s="4">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M29" s="4">
         <x:v>1</x:v>
       </x:c>
       <x:c r="N29" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O29" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="P29" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:16">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P29" s="4">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q29" s="4">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:17">
       <x:c r="A30" s="4">
         <x:v>502</x:v>
       </x:c>
       <x:c r="B30" s="4" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C30" s="4" t="s">
-        <x:v>83</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D30" s="4" t="s">
-        <x:v>72</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E30" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F30" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G30" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H30" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I30" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J30" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K30" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="L30" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="L30" s="4">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M30" s="4">
         <x:v>1</x:v>
       </x:c>
       <x:c r="N30" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O30" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="P30" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P30" s="4">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q30" s="4">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -3576,27 +3687,27 @@
   <x:sheetPr codeName="Sheet4"/>
   <x:dimension ref="A1:E27"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="170" zoomScaleNormal="170" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="G9" activeCellId="0" sqref="G9:G9"/>
+    <x:sheetView topLeftCell="A1" zoomScale="170" zoomScaleNormal="170" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="E4" activeCellId="0" sqref="E4:E5"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.66015625" defaultRowHeight="16.39999999999999857891"/>
   <x:sheetData>
     <x:row r="1" spans="1:5" ht="32.75">
       <x:c r="A1" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B1" s="6" t="s">
-        <x:v>50</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C1" s="6" t="s">
-        <x:v>34</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D1" s="6" t="s">
         <x:v>86</x:v>
       </x:c>
       <x:c r="E1" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:5">
@@ -3604,7 +3715,7 @@
         <x:v>300</x:v>
       </x:c>
       <x:c r="B2" s="4" t="s">
-        <x:v>54</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C2" s="7">
         <x:v>1</x:v>
@@ -3621,7 +3732,7 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="B3" s="4" t="s">
-        <x:v>35</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C3" s="7">
         <x:v>1</x:v>
@@ -3638,7 +3749,7 @@
         <x:v>301</x:v>
       </x:c>
       <x:c r="B4" s="4" t="s">
-        <x:v>65</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C4" s="7">
         <x:v>1</x:v>
@@ -3655,7 +3766,7 @@
         <x:v>401</x:v>
       </x:c>
       <x:c r="B5" s="4" t="s">
-        <x:v>49</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C5" s="7">
         <x:v>1</x:v>
@@ -3672,7 +3783,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="4" t="s">
-        <x:v>64</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C6" s="7">
         <x:v>0.05</x:v>
@@ -3687,7 +3798,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B7" s="4" t="s">
-        <x:v>30</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C7" s="7">
         <x:v>0.05</x:v>
@@ -3702,7 +3813,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B8" s="4" t="s">
-        <x:v>13</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C8" s="7">
         <x:v>0.080000000000000004</x:v>
@@ -3717,7 +3828,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B9" s="4" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C9" s="7">
         <x:v>0.080000000000000004</x:v>
@@ -3732,7 +3843,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B10" s="4" t="s">
-        <x:v>12</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C10" s="7">
         <x:v>0.14999999999999999</x:v>
@@ -3747,7 +3858,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B11" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C11" s="7">
         <x:v>0.05</x:v>
@@ -3762,7 +3873,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B12" s="4" t="s">
-        <x:v>27</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C12" s="7">
         <x:v>0.05</x:v>
@@ -3777,7 +3888,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B13" s="4" t="s">
-        <x:v>96</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C13" s="7">
         <x:v>0.080000000000000004</x:v>
@@ -3792,7 +3903,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B14" s="4" t="s">
-        <x:v>98</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C14" s="7">
         <x:v>0.080000000000000004</x:v>
@@ -3807,7 +3918,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B15" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C15" s="7">
         <x:v>0.14999999999999999</x:v>
@@ -3822,7 +3933,7 @@
         <x:v>302</x:v>
       </x:c>
       <x:c r="B16" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C16" s="7">
         <x:v>1</x:v>
@@ -3839,7 +3950,7 @@
         <x:v>402</x:v>
       </x:c>
       <x:c r="B17" s="4" t="s">
-        <x:v>43</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C17" s="7">
         <x:v>1</x:v>
@@ -3856,7 +3967,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B18" s="4" t="s">
-        <x:v>38</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C18" s="7">
         <x:v>0.020000000000000001</x:v>
@@ -3871,7 +3982,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B19" s="4" t="s">
-        <x:v>41</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C19" s="7">
         <x:v>0.020000000000000001</x:v>
@@ -3886,7 +3997,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B20" s="4" t="s">
-        <x:v>96</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C20" s="7">
         <x:v>0.20000000000000001</x:v>
@@ -3901,7 +4012,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B21" s="4" t="s">
-        <x:v>98</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C21" s="7">
         <x:v>0.20000000000000001</x:v>
@@ -3916,7 +4027,7 @@
         <x:v>303</x:v>
       </x:c>
       <x:c r="B22" s="4" t="s">
-        <x:v>19</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C22" s="7">
         <x:v>1</x:v>
@@ -3933,7 +4044,7 @@
         <x:v>403</x:v>
       </x:c>
       <x:c r="B23" s="4" t="s">
-        <x:v>26</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C23" s="7">
         <x:v>1</x:v>
@@ -3950,7 +4061,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B24" s="4" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C24" s="7">
         <x:v>0.14999999999999999</x:v>
@@ -3965,7 +4076,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B25" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C25" s="7">
         <x:v>0.14999999999999999</x:v>
@@ -3980,7 +4091,7 @@
         <x:v>501</x:v>
       </x:c>
       <x:c r="B26" s="4" t="s">
-        <x:v>5</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C26" s="7">
         <x:v>0.10000000000000001</x:v>
@@ -3995,7 +4106,7 @@
         <x:v>502</x:v>
       </x:c>
       <x:c r="B27" s="4" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C27" s="7">
         <x:v>1</x:v>
@@ -4006,7 +4117,7 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -4028,13 +4139,13 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="6" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B1" s="6" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C1" s="6" t="s">
         <x:v>61</x:v>
-      </x:c>
-      <x:c r="B1" s="6" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="C1" s="6" t="s">
-        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
@@ -4148,7 +4259,7 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -4170,34 +4281,34 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="32.75">
       <x:c r="A1" s="6" t="s">
-        <x:v>33</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B1" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C1" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D1" s="6" t="s">
-        <x:v>3</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E1" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F1" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G1" s="6" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H1" s="6" t="s">
-        <x:v>58</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="I1" s="6" t="s">
-        <x:v>10</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J1" s="6" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:10">
@@ -4208,7 +4319,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C2" s="7" t="s">
-        <x:v>93</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D2" s="7">
         <x:v>150</x:v>
@@ -4226,10 +4337,10 @@
         <x:v>0.10000000000000001</x:v>
       </x:c>
       <x:c r="I2" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J2" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:10">
@@ -4240,7 +4351,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C3" s="7" t="s">
-        <x:v>48</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D3" s="7">
         <x:v>300</x:v>
@@ -4258,10 +4369,10 @@
         <x:v>0.12</x:v>
       </x:c>
       <x:c r="I3" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J3" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:10">
@@ -4272,7 +4383,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C4" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D4" s="7">
         <x:v>450</x:v>
@@ -4290,10 +4401,10 @@
         <x:v>0.14000000000000001</x:v>
       </x:c>
       <x:c r="I4" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J4" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:10">
@@ -4304,7 +4415,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C5" s="7" t="s">
-        <x:v>74</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D5" s="7">
         <x:v>350</x:v>
@@ -4322,10 +4433,10 @@
         <x:v>0.17000000000000001</x:v>
       </x:c>
       <x:c r="I5" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J5" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10">
@@ -4336,7 +4447,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D6" s="7">
         <x:v>500</x:v>
@@ -4354,10 +4465,10 @@
         <x:v>0.070000000000000007</x:v>
       </x:c>
       <x:c r="I6" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J6" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:10">
@@ -4368,7 +4479,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D7" s="7">
         <x:v>700</x:v>
@@ -4400,7 +4511,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D8" s="7">
         <x:v>500</x:v>
@@ -4418,10 +4529,10 @@
         <x:v>0.19</x:v>
       </x:c>
       <x:c r="I8" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J8" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10">
@@ -4432,7 +4543,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C9" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D9" s="7">
         <x:v>650</x:v>
@@ -4450,10 +4561,10 @@
         <x:v>0.089999999999999991</x:v>
       </x:c>
       <x:c r="I9" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J9" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:10">
@@ -4464,7 +4575,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C10" s="7" t="s">
-        <x:v>47</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D10" s="7">
         <x:v>900</x:v>
@@ -4496,7 +4607,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C11" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D11" s="7">
         <x:v>1500</x:v>
@@ -4521,7 +4632,7 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>